--- a/Program/Other/URS會議審查紀錄/DbLayouts/L6-共同作業/CdBonus.xlsx
+++ b/Program/Other/URS會議審查紀錄/DbLayouts/L6-共同作業/CdBonus.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24729"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\SKL\DB\GenTables\L6-共同作業\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L6-共同作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C3D59A0-CF00-4F9B-B0D9-F9133B359463}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F584F941-7E9C-4D15-8129-17848C1896EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
@@ -294,48 +294,6 @@
   <si>
     <t>WorkMonth desc</t>
     <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">1.篩選條件-計件代碼
-</t>
-    </r>
-    <r>
-      <rPr>
-        <strike/>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>2.排除條件-商品代號</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t xml:space="preserve">
-3.金額級距
-</t>
-    </r>
-    <r>
-      <rPr>
-        <strike/>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>4.排除部門別
-5.是否排除15日薪非業績人員</t>
-    </r>
-    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -365,6 +323,48 @@
 條件記號=3時為金額級距序號2位            </t>
     </r>
     <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1:篩選條件-計件代碼
+</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>2:排除條件-商品代號</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve">
+3:金額級距
+</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>4:排除部門別
+5:是否排除15日薪非業績人員</t>
+    </r>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -655,14 +655,14 @@
     <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="8" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="8" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1007,8 +1007,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -1023,10 +1023,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="26"/>
+      <c r="B1" s="27"/>
       <c r="C1" s="9" t="s">
         <v>29</v>
       </c>
@@ -1038,8 +1038,8 @@
       <c r="G1" s="12"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="25"/>
-      <c r="B2" s="26"/>
+      <c r="A2" s="26"/>
+      <c r="B2" s="27"/>
       <c r="C2" s="13" t="s">
         <v>10</v>
       </c>
@@ -1051,10 +1051,10 @@
       <c r="G2" s="15"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="25" t="s">
+      <c r="A3" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="26"/>
+      <c r="B3" s="27"/>
       <c r="C3" s="20" t="s">
         <v>46</v>
       </c>
@@ -1064,10 +1064,10 @@
       <c r="G3" s="15"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="25" t="s">
+      <c r="A4" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="26"/>
+      <c r="B4" s="27"/>
       <c r="C4" s="17"/>
       <c r="D4" s="16"/>
       <c r="E4" s="15"/>
@@ -1075,10 +1075,10 @@
       <c r="G4" s="15"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="25" t="s">
+      <c r="A5" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="26"/>
+      <c r="B5" s="27"/>
       <c r="C5" s="20" t="s">
         <v>47</v>
       </c>
@@ -1088,10 +1088,10 @@
       <c r="G5" s="15"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="25" t="s">
+      <c r="A6" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="26"/>
+      <c r="B6" s="27"/>
       <c r="C6" s="17"/>
       <c r="D6" s="16"/>
       <c r="E6" s="15"/>
@@ -1099,10 +1099,10 @@
       <c r="G6" s="15"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="25" t="s">
+      <c r="A7" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="26"/>
+      <c r="B7" s="27"/>
       <c r="C7" s="17"/>
       <c r="D7" s="16"/>
       <c r="E7" s="15"/>
@@ -1171,7 +1171,7 @@
       </c>
       <c r="F10" s="19"/>
       <c r="G10" s="19" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="48.6" x14ac:dyDescent="0.3">
@@ -1187,11 +1187,11 @@
       <c r="D11" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="E11" s="27">
+      <c r="E11" s="25">
         <v>5</v>
       </c>
       <c r="G11" s="21" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="32.4" x14ac:dyDescent="0.3">
